--- a/Document/Data/Server/ServerConfig.xlsx
+++ b/Document/Data/Server/ServerConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newmr\Desktop\Study\Core\Document\Data\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B24060-D367-449F-A038-142863C5375E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A7B66-0C75-440A-8D06-D923DDD3074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,13 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -426,67 +422,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731530C-0039-42AC-944F-DD348182ED49}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
-    <col min="4" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
         <v>1000</v>
       </c>
     </row>
